--- a/financial_files/excel/NFLX.xlsx
+++ b/financial_files/excel/NFLX.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O107" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O107" headerRowCount="1">
   <autoFilter ref="A1:O107"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/NFLX.xlsx
+++ b/financial_files/excel/NFLX.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2000"/>
+    <tableColumn id="3" name="2001"/>
+    <tableColumn id="4" name="2002"/>
+    <tableColumn id="5" name="2003"/>
+    <tableColumn id="6" name="2004"/>
+    <tableColumn id="7" name="2005"/>
+    <tableColumn id="8" name="2006"/>
+    <tableColumn id="9" name="2007"/>
+    <tableColumn id="10" name="2008"/>
+    <tableColumn id="11" name="2009"/>
+    <tableColumn id="12" name="2010"/>
+    <tableColumn id="13" name="2011"/>
+    <tableColumn id="14" name="2012"/>
+    <tableColumn id="15" name="2013"/>
+    <tableColumn id="16" name="2014"/>
+    <tableColumn id="17" name="2015"/>
+    <tableColumn id="18" name="2016"/>
+    <tableColumn id="19" name="2017"/>
+    <tableColumn id="20" name="2018"/>
+    <tableColumn id="21" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6372,4 +6415,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35894000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>75912000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>152806000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>272243000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500611000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>682213000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>996660000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1205340000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1364661000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1670269000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2162625000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3204577000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3609282000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4374562000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5504656000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6779511000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8830669000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11692713000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>15794341000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>20156447000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-58468000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-37120000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-10673000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4472000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19354000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2989000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>64414000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>91161000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>121506000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>187379000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>283641000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>376068000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>49992000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>228347000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>402648000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>305826000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>379793000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>838679000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1605226000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2604254000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-58274000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21776000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8335000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80318000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>111501000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>131500000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>192192000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>267696000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>359522000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30480000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>171074000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>349369000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>141885000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>260507000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>485321000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1226458000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2062231000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-181000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33692000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-31236000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-44549000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-48474000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-76332000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-106843000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-133396000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-13328000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-58671000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-82570000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-19244000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-73829000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>73608000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-15216000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-195315000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>39592000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>102256000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>394856000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>880376000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>452991000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>458626000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>483525000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>482314000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>439852000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>408912000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>380128000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>380583000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>412328000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>425327000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>431894000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>436456000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>438652000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>446814000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>451244000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>451765000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52488000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41630000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>130530000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>176012000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>251793000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>364681000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>608779000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>683492000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>615424000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>679734000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>982067000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3069196000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3967890000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5412563000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7042500000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10202871000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>13586610000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>19012742000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>25974400000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>33975712000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3012000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1231000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>416000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>823000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2799000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>400000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>400000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>885849000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2371362000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3364311000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6499432000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10360058000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>14759260000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-73267000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-90504000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89356000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>112708000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>156283000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>226252000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>414211000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>429812000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>347155000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>199143000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>290164000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>642810000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>744673000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1333561000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1857708000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2223426000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2679800000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3581956000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5238765000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7582157000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4847000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40114000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>89792000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>145269000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>157507000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>247862000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>291823000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>284037000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>325063000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>276401000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>317712000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21586000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>97831000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>16483000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-749439000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-1473984000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-1785948000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-2680479000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-2887322000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12084000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-24833000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-62659000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-110190000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-133799000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-184537000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-23151000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-43790000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-34768000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-20918000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-49682000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-40278000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-54143000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-69726000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-91248000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-107653000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-173302000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-173946000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-253035000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6113</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2389</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.3636</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-20.4312</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.534</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4424</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3108</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5387</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5446</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1866</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0507</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0944</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1281</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.1148</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0129</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7816</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8388</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3627</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4609</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2093</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2239</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2947</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4817</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1262</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2315</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2761</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4796</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9308</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.7142</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9361</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1098</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3762</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4973</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4946</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.9308999999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.3414</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.3846</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.5483</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5357</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.9069</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2352</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.9873</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2613</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3866</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4477</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8307</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.1923</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.4263</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.2153</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1584</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.7907999999999999</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1968</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2052</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.3366</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4473</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.276</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.2384</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6178</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0842</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5736</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1773</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.0266</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1444</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1497</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1494</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.9320000000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.5321</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.8315</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-46.4673</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.9667</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.2116</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.5008</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.0771</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.1115</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7756</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.3241</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.671</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.2427</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.1057</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2083</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.1199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-1.0697</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.3372</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-2.2187</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-14.7896</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.8813</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.2387</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.4568</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.1001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-7237000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15281000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27133000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>35079000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23708000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>63325000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>268672000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>240247000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>290295000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>255483000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>268030000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-18692000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>43688000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-53243000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-840687000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-1581637000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-1959250000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-2854425000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-3140357000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.8505</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.8851</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2263</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8566</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8911</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7892</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7633</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.1353</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.3013</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5.0942</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.1091</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8.0166</v>
+      </c>
+      <c r="T21" t="n">
+        <v>11.6096</v>
+      </c>
+      <c r="U21" t="n">
+        <v>16.7834</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>248250390</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1391748860</v>
+      </c>
+      <c r="F22" t="n">
+        <v>649658240</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1483332300</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1772259030</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1726682000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1759397990</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2944017470</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9273797400</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3839121000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5147925300</v>
+      </c>
+      <c r="O22" t="n">
+        <v>21947297400</v>
+      </c>
+      <c r="P22" t="n">
+        <v>20638056800</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>48947777200</v>
+      </c>
+      <c r="R22" t="n">
+        <v>53240685200</v>
+      </c>
+      <c r="S22" t="n">
+        <v>83194120280</v>
+      </c>
+      <c r="T22" t="n">
+        <v>116860088340</v>
+      </c>
+      <c r="U22" t="n">
+        <v>141984780990</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-11.8507</v>
+      </c>
+      <c r="E23" t="n">
+        <v>213.7206</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30.0837</v>
+      </c>
+      <c r="G23" t="n">
+        <v>35.2947</v>
+      </c>
+      <c r="H23" t="n">
+        <v>36.1081</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25.7898</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21.1909</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25.4101</v>
+      </c>
+      <c r="L23" t="n">
+        <v>57.6538</v>
+      </c>
+      <c r="M23" t="n">
+        <v>16.9777</v>
+      </c>
+      <c r="N23" t="n">
+        <v>300.1355</v>
+      </c>
+      <c r="O23" t="n">
+        <v>195.2554</v>
+      </c>
+      <c r="P23" t="n">
+        <v>77.35429999999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>399.1143</v>
+      </c>
+      <c r="R23" t="n">
+        <v>285.2006</v>
+      </c>
+      <c r="S23" t="n">
+        <v>148.8455</v>
+      </c>
+      <c r="T23" t="n">
+        <v>96.4795</v>
+      </c>
+      <c r="U23" t="n">
+        <v>76.0531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>42.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>31.30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>40.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>44.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>46.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>112.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>54.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>28.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>29.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>31.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-7.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-126.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-25.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-10.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-7.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-12.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-25.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-7.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>14759260000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.192000201826387</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4095</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3959794610583452</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.3959794610583452</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>174.0288489635222</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>165.30697</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>79.19589221166903</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>79.19589221166903</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13782.36996423594</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3406.79106927249</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1703.395534636245</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Netflix, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.netflix.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>229879201792</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3091075</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>57.49503</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>540.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>